--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2083022.47807738</v>
+        <v>-2085883.291869672</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>32.55518202532718</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>66.67731766039428</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>92.08068424054288</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>96.04807775121448</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>141.7167696745155</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>212.345823861795</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.096520216718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.72526863633248</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>28.33708868093433</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>21.3522294772116</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.8572931275707</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>56.92395525217695</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658358</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.2120418485588</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696369</v>
+        <v>93.83392671696365</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906619</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>35.22722591940293</v>
+        <v>59.02353518847791</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>146.2696624890872</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>171.1928565180367</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>37.19933342822802</v>
       </c>
       <c r="X16" t="n">
-        <v>150.672680124696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>53.8291382214997</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>251.5502284016991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>112.5005260950196</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.98113264792573</v>
+        <v>300.438579740743</v>
       </c>
       <c r="C2" t="n">
-        <v>53.98113264792573</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0971104001205</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0971104001205</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822819</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822819</v>
+        <v>833.193892875099</v>
       </c>
       <c r="W2" t="n">
-        <v>320.3587892151038</v>
+        <v>833.193892875099</v>
       </c>
       <c r="X2" t="n">
-        <v>320.3587892151038</v>
+        <v>833.193892875099</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.98113264792573</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>470.3230768817243</v>
+        <v>535.3845659029931</v>
       </c>
       <c r="C3" t="n">
-        <v>295.8700476005972</v>
+        <v>360.9315366218661</v>
       </c>
       <c r="D3" t="n">
-        <v>295.8700476005972</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302314</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>678.0833756466782</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>678.0833756466782</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>678.0833756466782</v>
+        <v>800.6181632778232</v>
       </c>
       <c r="X3" t="n">
-        <v>678.0833756466782</v>
+        <v>703.5999029230611</v>
       </c>
       <c r="Y3" t="n">
-        <v>470.3230768817243</v>
+        <v>703.5999029230611</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.0102039825136</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="C4" t="n">
-        <v>169.0102039825136</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092336</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>493.8069210092336</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="V4" t="n">
-        <v>493.8069210092336</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="W4" t="n">
-        <v>350.6586688127533</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="X4" t="n">
-        <v>350.6586688127533</v>
+        <v>601.3969328660218</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.6586688127533</v>
+        <v>386.9062016924914</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316.5660780344868</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>974.1708800144991</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>974.1708800144991</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>974.1708800144991</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>739.0187717827564</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>484.7814150545548</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X6" t="n">
-        <v>484.7814150545548</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>484.7814150545548</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>671.3785036348206</v>
+        <v>358.602653973024</v>
       </c>
       <c r="C7" t="n">
-        <v>671.3785036348206</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>521.2618642224849</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>373.3487706400917</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>226.4588231421814</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>57.88946249718484</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>624.980310540202</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>624.980310540202</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348206</v>
+        <v>624.980310540202</v>
       </c>
       <c r="W7" t="n">
-        <v>671.3785036348206</v>
+        <v>358.602653973024</v>
       </c>
       <c r="X7" t="n">
-        <v>671.3785036348206</v>
+        <v>358.602653973024</v>
       </c>
       <c r="Y7" t="n">
-        <v>671.3785036348206</v>
+        <v>358.602653973024</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>491.7836466761395</v>
+        <v>1582.37905722237</v>
       </c>
       <c r="C8" t="n">
-        <v>122.8211297357278</v>
+        <v>1213.416540281958</v>
       </c>
       <c r="D8" t="n">
-        <v>65.32218503655919</v>
+        <v>855.1508416752076</v>
       </c>
       <c r="E8" t="n">
-        <v>65.32218503655919</v>
+        <v>469.3625890769634</v>
       </c>
       <c r="F8" t="n">
-        <v>58.37668428735572</v>
+        <v>58.37668428735589</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229155</v>
+        <v>166.4989367229164</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677479</v>
+        <v>397.0601716677497</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937549</v>
+        <v>719.9935330937581</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721573</v>
+        <v>1110.988557721578</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999416</v>
+        <v>1512.924098999421</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830551</v>
+        <v>1879.125171830558</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271717</v>
+        <v>2157.168314271725</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257576</v>
+        <v>2317.794388257584</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590838</v>
+        <v>2222.57563287513</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.820119590838</v>
+        <v>2222.57563287513</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.820119590838</v>
+        <v>1968.978897286491</v>
       </c>
       <c r="V8" t="n">
-        <v>1994.757232247267</v>
+        <v>1968.978897286491</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.988576977153</v>
+        <v>1968.978897286491</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.522818716073</v>
+        <v>1968.978897286491</v>
       </c>
       <c r="Y8" t="n">
-        <v>878.3834867402613</v>
+        <v>1968.978897286491</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.4942745006746</v>
+        <v>770.4575984713148</v>
       </c>
       <c r="C9" t="n">
-        <v>620.0412452195476</v>
+        <v>596.0045691901878</v>
       </c>
       <c r="D9" t="n">
-        <v>471.1068355582963</v>
+        <v>447.0701595289366</v>
       </c>
       <c r="E9" t="n">
-        <v>311.8693805528408</v>
+        <v>287.8327045234811</v>
       </c>
       <c r="F9" t="n">
-        <v>165.3348225797257</v>
+        <v>141.2981465503661</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797257</v>
+        <v>141.2981465503661</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117654</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977897</v>
+        <v>99.15933091977951</v>
       </c>
       <c r="K9" t="n">
-        <v>402.9718154420751</v>
+        <v>267.2893053412826</v>
       </c>
       <c r="L9" t="n">
-        <v>675.3658557344888</v>
+        <v>657.4072327143467</v>
       </c>
       <c r="M9" t="n">
-        <v>1012.593720931152</v>
+        <v>994.6350979110109</v>
       </c>
       <c r="N9" t="n">
-        <v>1373.155649182488</v>
+        <v>1355.197026162348</v>
       </c>
       <c r="O9" t="n">
-        <v>1680.779576843375</v>
+        <v>1662.820953823235</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106028</v>
+        <v>2205.661351085889</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590838</v>
+        <v>2307.8614965707</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="S9" t="n">
-        <v>2290.237063106592</v>
+        <v>2266.200387077232</v>
       </c>
       <c r="T9" t="n">
-        <v>2095.807876606924</v>
+        <v>2071.771200577564</v>
       </c>
       <c r="U9" t="n">
-        <v>1867.710875451173</v>
+        <v>1843.674199421814</v>
       </c>
       <c r="V9" t="n">
-        <v>1632.558767219431</v>
+        <v>1608.522091190071</v>
       </c>
       <c r="W9" t="n">
-        <v>1378.321410491229</v>
+        <v>1354.284734461869</v>
       </c>
       <c r="X9" t="n">
-        <v>1170.469910285696</v>
+        <v>1146.433234256337</v>
       </c>
       <c r="Y9" t="n">
-        <v>962.7096115207426</v>
+        <v>938.6729354913828</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>749.4546413741597</v>
+        <v>808.1193996397238</v>
       </c>
       <c r="C10" t="n">
-        <v>749.4546413741597</v>
+        <v>639.183216711817</v>
       </c>
       <c r="D10" t="n">
-        <v>599.3380019618239</v>
+        <v>489.0665772994812</v>
       </c>
       <c r="E10" t="n">
-        <v>451.4249083794308</v>
+        <v>341.1534837170881</v>
       </c>
       <c r="F10" t="n">
-        <v>304.5349608815204</v>
+        <v>194.2635362191777</v>
       </c>
       <c r="G10" t="n">
-        <v>304.5349608815204</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="H10" t="n">
-        <v>155.0146408174517</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909521</v>
+        <v>65.89540801909561</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736013</v>
+        <v>227.577903973602</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632608</v>
+        <v>490.002268063262</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794039</v>
+        <v>777.0810884794055</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620618</v>
+        <v>1062.76843262062</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257113</v>
+        <v>1310.630639257116</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325115</v>
+        <v>1499.198894325118</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718229</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600084</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="S10" t="n">
-        <v>1266.861362309138</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="T10" t="n">
-        <v>1266.861362309138</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="U10" t="n">
-        <v>1266.861362309138</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="V10" t="n">
-        <v>1266.861362309138</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="W10" t="n">
-        <v>977.444192272177</v>
+        <v>1256.901529681271</v>
       </c>
       <c r="X10" t="n">
-        <v>749.4546413741597</v>
+        <v>1028.911978783254</v>
       </c>
       <c r="Y10" t="n">
-        <v>749.4546413741597</v>
+        <v>808.1193996397238</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232838</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5498,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5546,13 +5546,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>230.276233290462</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6130,19 +6130,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6254,10 +6254,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,7 +6497,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7357,22 +7357,22 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127281</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.509660909446</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.3429583777515</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>137.0530405058522</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>118.9130172531814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864789</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>322.1278595953558</v>
+        <v>195.2198534543486</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>261.0749408097406</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>84.05676063109122</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22689,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>109.724907452263</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>249.323664908363</v>
       </c>
       <c r="X16" t="n">
-        <v>75.03697526434118</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>86.46557462472418</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5874149221289144</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>32.92052192791162</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772871</v>
+        <v>67700.85635772873</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900067</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>80714.65996900064</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>80714.65996900058</v>
+      </c>
+      <c r="K2" t="n">
         <v>80714.65996900063</v>
       </c>
-      <c r="H2" t="n">
-        <v>80714.65996900058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80714.6599690006</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80714.65996900067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>80714.65996900061</v>
-      </c>
       <c r="L2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642837</v>
-      </c>
       <c r="O2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642839</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512972</v>
+        <v>331437.5228512993</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424123</v>
+        <v>563905.7843424099</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201178</v>
+        <v>99845.14336201233</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.676956956</v>
+        <v>147342.6769569553</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169912.65332604</v>
+        <v>169912.6533260401</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>158321.553687836</v>
+        <v>158321.5536878355</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,31 +26433,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680584</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680588</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680578</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19767.83547989935</v>
+      </c>
+      <c r="N4" t="n">
         <v>19767.83547989929</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>19767.83547989931</v>
+      </c>
+      <c r="P4" t="n">
         <v>19767.8354798993</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.8354798993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19767.83547989931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543573</v>
+        <v>88290.79546543592</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-845347.5807637706</v>
+        <v>-845707.6637794883</v>
       </c>
       <c r="C6" t="n">
         <v>-233065.6914810154</v>
       </c>
       <c r="D6" t="n">
-        <v>-495945.6950181406</v>
+        <v>-495945.6950181423</v>
       </c>
       <c r="E6" t="n">
-        <v>-596090.6304141245</v>
+        <v>-596125.3683395579</v>
       </c>
       <c r="F6" t="n">
-        <v>-32184.84607171229</v>
+        <v>-32219.583997148</v>
       </c>
       <c r="G6" t="n">
-        <v>-32184.84607171231</v>
+        <v>-32219.58399714802</v>
       </c>
       <c r="H6" t="n">
-        <v>-32184.84607171237</v>
+        <v>-32219.58399714799</v>
       </c>
       <c r="I6" t="n">
-        <v>-32184.84607171238</v>
+        <v>-32219.58399714802</v>
       </c>
       <c r="J6" t="n">
-        <v>-101184.0004908263</v>
+        <v>-101218.7384162621</v>
       </c>
       <c r="K6" t="n">
-        <v>-32184.84607171238</v>
+        <v>-32219.583997148</v>
       </c>
       <c r="L6" t="n">
-        <v>-140672.9177093981</v>
+        <v>-140672.9177093987</v>
       </c>
       <c r="M6" t="n">
-        <v>-188170.4513043423</v>
+        <v>-188170.4513043417</v>
       </c>
       <c r="N6" t="n">
-        <v>-40827.77434738632</v>
+        <v>-40827.7743473863</v>
       </c>
       <c r="O6" t="n">
-        <v>-40827.77434738633</v>
+        <v>-40827.77434738635</v>
       </c>
       <c r="P6" t="n">
-        <v>-40827.77434738635</v>
+        <v>-40827.77434738631</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203977</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896791</v>
+        <v>885.813286589681</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977094</v>
+        <v>581.4550298977116</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202009</v>
+        <v>271.7582728202026</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519946</v>
+        <v>482.1622137519926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962033</v>
+        <v>317.7411498962054</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019389</v>
+        <v>591.2532582019365</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962033</v>
+        <v>317.7411498962054</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019389</v>
+        <v>591.2532582019363</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962033</v>
+        <v>317.7411498962054</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019389</v>
+        <v>591.2532582019365</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>159.4631881663344</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.46729802345611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>65.56439621485806</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>144.8062286620755</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>6.238829490299793</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>144.5964234373403</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1414184393356</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>85.42466677586629</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27752,16 +27752,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>223.3578944799853</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>131.0299298586452</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>2.357052751995155</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>297.759086368506</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819519</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815019</v>
+        <v>73.18818411814991</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177536</v>
+        <v>25.66040856919462</v>
       </c>
       <c r="T8" t="n">
         <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906606</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>101.0651973664416</v>
+        <v>77.26888809736654</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>20.1239486476525</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
-        <v>24.9859698731583</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
         <v>221.1204706627545</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551471</v>
+        <v>3.561058438551478</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381527</v>
+        <v>36.46968973381534</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522557</v>
+        <v>137.287705452256</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490082</v>
+        <v>302.2403836490088</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528921</v>
+        <v>452.979987352893</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417117</v>
+        <v>561.9617295417129</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483015</v>
+        <v>625.2907025483028</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368359</v>
+        <v>635.4085598368372</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884897</v>
+        <v>599.9982849884909</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867501</v>
+        <v>512.0846547867512</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561254</v>
+        <v>384.5542494561262</v>
       </c>
       <c r="R8" t="n">
-        <v>223.692337140659</v>
+        <v>223.6923371406595</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849173</v>
+        <v>81.1476191684919</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475907</v>
+        <v>15.58853331475911</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841176</v>
+        <v>0.2848846750841182</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079687</v>
+        <v>1.905334239079691</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953277</v>
+        <v>18.40151751953281</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234889</v>
+        <v>65.60032358234902</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474366</v>
+        <v>180.012301947437</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657756</v>
+        <v>307.6696959657763</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247365</v>
+        <v>413.6998750247374</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913751</v>
+        <v>482.768241191376</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139754</v>
+        <v>495.5456800139764</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059465</v>
+        <v>453.3274845059474</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730326</v>
+        <v>363.8352723730333</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726984</v>
+        <v>243.2142442726988</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053161</v>
+        <v>118.2978574053163</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799329</v>
+        <v>35.39074781799336</v>
       </c>
       <c r="T9" t="n">
-        <v>7.67983406015014</v>
+        <v>7.679834060150156</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815584</v>
+        <v>0.1253509367815587</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719093</v>
+        <v>1.597368221719097</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401159</v>
+        <v>14.20205564401162</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587966</v>
+        <v>48.03721888587976</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755399</v>
+        <v>112.9339332755401</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051819</v>
+        <v>185.5851443051823</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817642</v>
+        <v>237.4850899817646</v>
       </c>
       <c r="M10" t="n">
-        <v>250.394729519112</v>
+        <v>250.3947295191125</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108865</v>
+        <v>244.440902510887</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753498</v>
+        <v>225.7807373753502</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522801</v>
+        <v>193.1944256522805</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750416</v>
+        <v>133.7578062750418</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020576</v>
+        <v>71.82348386020591</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577728</v>
+        <v>27.83777164577734</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527034</v>
+        <v>6.825118765527048</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013247</v>
+        <v>0.08712917573013264</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>519.7862086120944</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.548359657229</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458919</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496884</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223219</v>
+        <v>121.1944791223225</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079115</v>
+        <v>232.8901363079124</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717245</v>
+        <v>326.1953145717256</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210288</v>
+        <v>394.9444693210301</v>
       </c>
       <c r="N8" t="n">
-        <v>405.995496240245</v>
+        <v>405.9954962402463</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668029</v>
+        <v>369.9000735668042</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314806</v>
+        <v>280.8516590314817</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816759</v>
+        <v>162.2485595816767</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526925</v>
+        <v>8.10679932652738</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528076992</v>
+        <v>53.17467528077029</v>
       </c>
       <c r="K9" t="n">
-        <v>306.8812974972688</v>
+        <v>169.8282569914173</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448623</v>
+        <v>394.0585124980445</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693568</v>
+        <v>340.6342072693577</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306421</v>
+        <v>364.2039679306431</v>
       </c>
       <c r="O9" t="n">
-        <v>310.731240061502</v>
+        <v>310.7312400615029</v>
       </c>
       <c r="P9" t="n">
-        <v>548.3236335986395</v>
+        <v>548.3236335986403</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866768</v>
+        <v>103.2324701866773</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267317</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886713</v>
+        <v>19.57475315886735</v>
       </c>
       <c r="K10" t="n">
-        <v>163.315652479299</v>
+        <v>163.3156524792994</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420803</v>
+        <v>265.0751152420808</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809526</v>
+        <v>289.9786064809531</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901151</v>
+        <v>288.5730748901156</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893894</v>
+        <v>250.3658652893899</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171736</v>
+        <v>190.472984917174</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334717</v>
+        <v>47.59576302334743</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>388.444496528761</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
